--- a/data/microservice-recruit/pf-push_structure.xlsx
+++ b/data/microservice-recruit/pf-push_structure.xlsx
@@ -339,28 +339,28 @@
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>MESSAGE_CHANNEL</t>
+  </si>
+  <si>
     <t>CLOSE_CHANNEL</t>
   </si>
   <si>
-    <t>MESSAGE_CHANNEL</t>
+    <t>userId</t>
   </si>
   <si>
     <t>session</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>sessionCache</t>
   </si>
   <si>
     <t>com.google.common.cache.Cache</t>
   </si>
   <si>
+    <t>redis</t>
+  </si>
+  <si>
     <t>message</t>
-  </si>
-  <si>
-    <t>redis</t>
   </si>
   <si>
     <t>charset</t>
@@ -3522,13 +3522,13 @@
         <v>56</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -3536,13 +3536,13 @@
         <v>56</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -3550,13 +3550,13 @@
         <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -3564,13 +3564,13 @@
         <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -3578,13 +3578,13 @@
         <v>59</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>71</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -3592,7 +3592,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>71</v>
@@ -3606,13 +3606,13 @@
         <v>59</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>71</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -3620,13 +3620,13 @@
         <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>71</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -3634,13 +3634,13 @@
         <v>59</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>71</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -3654,7 +3654,7 @@
         <v>71</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -3662,7 +3662,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>71</v>
@@ -3676,7 +3676,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>71</v>
@@ -4483,7 +4483,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>121</v>
@@ -4500,7 +4500,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>121</v>
@@ -4517,7 +4517,7 @@
         <v>56</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>121</v>
@@ -4534,7 +4534,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>121</v>
